--- a/test_code_creation_name/doc/RP2_10_結合テスト仕様書_1.1_.xlsx
+++ b/test_code_creation_name/doc/RP2_10_結合テスト仕様書_1.1_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-nakatani.KFAD\git\lms-test-src-rp2\test_code_creation_name\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686ACE99-1F49-4AC0-BD7B-D2E014EBC153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DED311-AE80-4E27-AC70-394EB14EF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="902" xr2:uid="{3CA2E061-D31D-4072-8EB0-71ACBFB51C19}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -1170,16 +1170,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Case01,Case02の仕様書を更新</t>
-    <rPh sb="14" eb="17">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ログイン画面が表示される。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -1194,11 +1184,52 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>「＊ログインに失敗しました。」というエラーメッセージが表示される。</t>
+    <t>コース詳細画面に遷移する。</t>
+    <rPh sb="3" eb="7">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Case01,Case02,Case03の仕様書を更新</t>
+    <rPh sb="21" eb="24">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインID：StudentAA01
+パスワード：StudentAA02
+上記のID,パスワードを入力し、ログインボタンを押下する。</t>
+    <rPh sb="37" eb="39">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示され、「＊ログインに失敗しました。」というエラーメッセージが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>シッパイ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -2101,9 +2132,7 @@
   </sheetPr>
   <dimension ref="B4:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="105" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="105" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="16.2"/>
   <cols>
@@ -2166,7 +2195,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="19.2">
@@ -3987,8 +4016,10 @@
     <mergeCell ref="AB8:BB8"/>
     <mergeCell ref="BC8:BG8"/>
     <mergeCell ref="BH8:BK8"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BH12:BK12"/>
+    <mergeCell ref="BL9:BN9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:AA9"/>
+    <mergeCell ref="AB9:BB9"/>
     <mergeCell ref="BL12:BN12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:AA11"/>
@@ -3996,12 +4027,11 @@
     <mergeCell ref="BC11:BG11"/>
     <mergeCell ref="BH11:BK11"/>
     <mergeCell ref="BL11:BN11"/>
-    <mergeCell ref="BL9:BN9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:AA14"/>
-    <mergeCell ref="AB14:BB14"/>
-    <mergeCell ref="BC14:BG14"/>
-    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:AA12"/>
+    <mergeCell ref="AB12:BB12"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="BH9:BK9"/>
     <mergeCell ref="BL14:BN14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:AA13"/>
@@ -4009,14 +4039,13 @@
     <mergeCell ref="BC13:BG13"/>
     <mergeCell ref="BH13:BK13"/>
     <mergeCell ref="BL13:BN13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:AA12"/>
-    <mergeCell ref="AB12:BB12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:AA9"/>
-    <mergeCell ref="AB9:BB9"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BH9:BK9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:AA14"/>
+    <mergeCell ref="AB14:BB14"/>
+    <mergeCell ref="BC14:BG14"/>
+    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="BH12:BK12"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
@@ -5779,6 +5808,10 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:AA13"/>
     <mergeCell ref="AB13:BB13"/>
+    <mergeCell ref="BL10:BN10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:AA11"/>
+    <mergeCell ref="AB11:BB11"/>
     <mergeCell ref="BC13:BG13"/>
     <mergeCell ref="BH13:BK13"/>
     <mergeCell ref="BL13:BN13"/>
@@ -5787,22 +5820,10 @@
     <mergeCell ref="AB12:BB12"/>
     <mergeCell ref="BC12:BG12"/>
     <mergeCell ref="BH12:BK12"/>
-    <mergeCell ref="BL11:BN11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:AA8"/>
-    <mergeCell ref="AB8:BB8"/>
-    <mergeCell ref="BC8:BG8"/>
-    <mergeCell ref="BH8:BK8"/>
-    <mergeCell ref="BL8:BN8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:AA10"/>
     <mergeCell ref="AB10:BB10"/>
     <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BN10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:AA11"/>
-    <mergeCell ref="AB11:BB11"/>
     <mergeCell ref="BC11:BG11"/>
     <mergeCell ref="BH11:BK11"/>
     <mergeCell ref="BL6:BN6"/>
@@ -5817,6 +5838,9 @@
     <mergeCell ref="AB6:BB6"/>
     <mergeCell ref="BC6:BG6"/>
     <mergeCell ref="BH6:BK6"/>
+    <mergeCell ref="BL11:BN11"/>
+    <mergeCell ref="BH10:BK10"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="BH4:BK4"/>
     <mergeCell ref="BL4:BN4"/>
     <mergeCell ref="B5:D5"/>
@@ -5825,6 +5849,11 @@
     <mergeCell ref="BC5:BG5"/>
     <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="BL8:BN8"/>
+    <mergeCell ref="E8:AA8"/>
+    <mergeCell ref="AB8:BB8"/>
+    <mergeCell ref="BC8:BG8"/>
+    <mergeCell ref="BH8:BK8"/>
     <mergeCell ref="F2:AA2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:AA4"/>
@@ -12537,6 +12566,12 @@
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="L14:X14"/>
     <mergeCell ref="Y14:BC14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:X12"/>
+    <mergeCell ref="Y12:BC12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:X4"/>
@@ -12565,12 +12600,6 @@
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="L10:X10"/>
     <mergeCell ref="Y10:BC10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:X12"/>
-    <mergeCell ref="Y12:BC12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
     <mergeCell ref="L13:X13"/>
     <mergeCell ref="Y13:BC13"/>
     <mergeCell ref="B17:D17"/>
@@ -12791,7 +12820,7 @@
       <c r="Z5" s="42"/>
       <c r="AA5" s="43"/>
       <c r="AB5" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC5" s="42"/>
       <c r="AD5" s="42"/>
@@ -13707,7 +13736,7 @@
       <c r="Z5" s="42"/>
       <c r="AA5" s="43"/>
       <c r="AB5" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC5" s="42"/>
       <c r="AD5" s="42"/>
@@ -13786,7 +13815,7 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="42"/>
       <c r="AD6" s="42"/>
@@ -14607,7 +14636,9 @@
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="41"/>
+      <c r="E5" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -14630,7 +14661,9 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
       <c r="AA5" s="43"/>
-      <c r="AB5" s="41"/>
+      <c r="AB5" s="41" t="s">
+        <v>71</v>
+      </c>
       <c r="AC5" s="42"/>
       <c r="AD5" s="42"/>
       <c r="AE5" s="42"/>
@@ -14670,13 +14703,15 @@
       <c r="BM5" s="46"/>
       <c r="BN5" s="46"/>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" ht="40.799999999999997" customHeight="1">
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="44"/>
+      <c r="E6" s="44" t="s">
+        <v>74</v>
+      </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -14699,7 +14734,9 @@
       <c r="Y6" s="44"/>
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
-      <c r="AB6" s="41"/>
+      <c r="AB6" s="41" t="s">
+        <v>72</v>
+      </c>
       <c r="AC6" s="42"/>
       <c r="AD6" s="42"/>
       <c r="AE6" s="42"/>

--- a/test_code_creation_name/doc/RP2_10_結合テスト仕様書_1.1_.xlsx
+++ b/test_code_creation_name/doc/RP2_10_結合テスト仕様書_1.1_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-nakatani.KFAD\git\lms-test-src-rp2\test_code_creation_name\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A77171-3107-48FB-B2D8-239BBF29A2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D96F9-293C-4F71-9BCF-EFA8587066FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="902" xr2:uid="{3CA2E061-D31D-4072-8EB0-71ACBFB51C19}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="83">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -1231,6 +1231,68 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインID：StudentAA01
+パスワード：StudentAA02
+上記のID,パスワードを入力し、ログインボタンを押下する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コース詳細画面に遷移する。
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ヘルプ画面に遷移する。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>よくある質問画面に遷移する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ヘルプ画面の「よくある質問」リンクを押下する。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コース詳細画面の上部にある機能をドロップダウンし、「ヘルプ」リンクを押下する。
+</t>
+    <rPh sb="3" eb="7">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Case04の仕様書を更新</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2199,9 +2261,15 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="19.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="9">
+        <v>45954</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="19.2">
       <c r="B26" s="13"/>
@@ -14690,20 +14758,26 @@
       <c r="AZ5" s="43"/>
       <c r="BA5" s="43"/>
       <c r="BB5" s="44"/>
-      <c r="BC5" s="45"/>
+      <c r="BC5" s="45">
+        <v>45953</v>
+      </c>
       <c r="BD5" s="45"/>
       <c r="BE5" s="45"/>
       <c r="BF5" s="45"/>
       <c r="BG5" s="45"/>
-      <c r="BH5" s="40"/>
+      <c r="BH5" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BI5" s="40"/>
       <c r="BJ5" s="40"/>
       <c r="BK5" s="40"/>
-      <c r="BL5" s="40"/>
+      <c r="BL5" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM5" s="40"/>
       <c r="BN5" s="40"/>
     </row>
-    <row r="6" spans="1:66" ht="40.799999999999997" customHeight="1">
+    <row r="6" spans="1:66" ht="36.6" customHeight="1">
       <c r="B6" s="22">
         <v>2</v>
       </c>
@@ -14763,16 +14837,22 @@
       <c r="AZ6" s="43"/>
       <c r="BA6" s="43"/>
       <c r="BB6" s="44"/>
-      <c r="BC6" s="45"/>
+      <c r="BC6" s="45">
+        <v>45953</v>
+      </c>
       <c r="BD6" s="45"/>
       <c r="BE6" s="45"/>
       <c r="BF6" s="45"/>
       <c r="BG6" s="45"/>
-      <c r="BH6" s="40"/>
+      <c r="BH6" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BI6" s="40"/>
       <c r="BJ6" s="40"/>
       <c r="BK6" s="40"/>
-      <c r="BL6" s="40"/>
+      <c r="BL6" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM6" s="40"/>
       <c r="BN6" s="40"/>
     </row>
@@ -15550,7 +15630,9 @@
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="42"/>
+      <c r="E5" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -15573,7 +15655,9 @@
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
       <c r="AA5" s="44"/>
-      <c r="AB5" s="42"/>
+      <c r="AB5" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="AC5" s="43"/>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -15600,26 +15684,34 @@
       <c r="AZ5" s="43"/>
       <c r="BA5" s="43"/>
       <c r="BB5" s="44"/>
-      <c r="BC5" s="45"/>
+      <c r="BC5" s="45">
+        <v>45954</v>
+      </c>
       <c r="BD5" s="45"/>
       <c r="BE5" s="45"/>
       <c r="BF5" s="45"/>
       <c r="BG5" s="45"/>
-      <c r="BH5" s="40"/>
+      <c r="BH5" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BI5" s="40"/>
       <c r="BJ5" s="40"/>
       <c r="BK5" s="40"/>
-      <c r="BL5" s="40"/>
+      <c r="BL5" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM5" s="40"/>
       <c r="BN5" s="40"/>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" ht="33.6" customHeight="1">
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="41"/>
+      <c r="E6" s="41" t="s">
+        <v>76</v>
+      </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -15642,7 +15734,9 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
       <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
+      <c r="AB6" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="AC6" s="43"/>
       <c r="AD6" s="43"/>
       <c r="AE6" s="43"/>
@@ -15669,26 +15763,34 @@
       <c r="AZ6" s="43"/>
       <c r="BA6" s="43"/>
       <c r="BB6" s="44"/>
-      <c r="BC6" s="45"/>
+      <c r="BC6" s="45">
+        <v>45954</v>
+      </c>
       <c r="BD6" s="45"/>
       <c r="BE6" s="45"/>
       <c r="BF6" s="45"/>
       <c r="BG6" s="45"/>
-      <c r="BH6" s="40"/>
+      <c r="BH6" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BI6" s="40"/>
       <c r="BJ6" s="40"/>
       <c r="BK6" s="40"/>
-      <c r="BL6" s="40"/>
+      <c r="BL6" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM6" s="40"/>
       <c r="BN6" s="40"/>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" ht="23.4" customHeight="1">
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="41" t="s">
+        <v>81</v>
+      </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -15711,7 +15813,9 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
+      <c r="AB7" s="42" t="s">
+        <v>78</v>
+      </c>
       <c r="AC7" s="43"/>
       <c r="AD7" s="43"/>
       <c r="AE7" s="43"/>
@@ -15738,16 +15842,22 @@
       <c r="AZ7" s="43"/>
       <c r="BA7" s="43"/>
       <c r="BB7" s="44"/>
-      <c r="BC7" s="45"/>
+      <c r="BC7" s="45">
+        <v>45954</v>
+      </c>
       <c r="BD7" s="45"/>
       <c r="BE7" s="45"/>
       <c r="BF7" s="45"/>
       <c r="BG7" s="45"/>
-      <c r="BH7" s="40"/>
+      <c r="BH7" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BI7" s="40"/>
       <c r="BJ7" s="40"/>
       <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
+      <c r="BL7" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM7" s="40"/>
       <c r="BN7" s="40"/>
     </row>
@@ -15757,7 +15867,9 @@
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -15780,7 +15892,9 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
       <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
+      <c r="AB8" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
       <c r="AE8" s="43"/>
@@ -15807,16 +15921,22 @@
       <c r="AZ8" s="43"/>
       <c r="BA8" s="43"/>
       <c r="BB8" s="44"/>
-      <c r="BC8" s="45"/>
+      <c r="BC8" s="45">
+        <v>45954</v>
+      </c>
       <c r="BD8" s="45"/>
       <c r="BE8" s="45"/>
       <c r="BF8" s="45"/>
       <c r="BG8" s="45"/>
-      <c r="BH8" s="40"/>
+      <c r="BH8" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BI8" s="40"/>
       <c r="BJ8" s="40"/>
       <c r="BK8" s="40"/>
-      <c r="BL8" s="40"/>
+      <c r="BL8" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM8" s="40"/>
       <c r="BN8" s="40"/>
     </row>

--- a/test_code_creation_name/doc/RP2_10_結合テスト仕様書_1.1_.xlsx
+++ b/test_code_creation_name/doc/RP2_10_結合テスト仕様書_1.1_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-nakatani.KFAD\git\lms-test-src-rp2\test_code_creation_name\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD5111A-4CE6-41E2-99CF-C524ED3C024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9F3A5-3AD7-4B74-89AA-A33A1A5639F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="902" xr2:uid="{3CA2E061-D31D-4072-8EB0-71ACBFB51C19}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="105">
   <si>
     <t>関係者外秘</t>
   </si>
@@ -1477,6 +1477,47 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コース詳細画面で、「未提出」ステータスの研修日の「詳細」ボタンを押下する。</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>セクション詳細画面に遷移する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>セクション詳細画面の「日報を提出する」ボタンを押下する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>レポート登録画面に遷移する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>レポート登録画面で、「あいうえお」を入力して、「提出する」ボタンを押下する。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>セクション詳細画面に遷移する。
+ボタン名が「日報【デモ】を提出する」から「提出済み日報【デモ】を確認する」に更新される。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Case07の仕様書を作成</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2473,9 +2514,15 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="9">
+        <v>45958</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="28" spans="2:4" ht="19.2">
       <c r="B28" s="9"/>
@@ -18607,9 +18654,7 @@
   </sheetPr>
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6:BB6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.2"/>
   <cols>
@@ -18887,7 +18932,9 @@
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
@@ -18910,7 +18957,9 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
+      <c r="AB7" s="44" t="s">
+        <v>99</v>
+      </c>
       <c r="AC7" s="45"/>
       <c r="AD7" s="45"/>
       <c r="AE7" s="45"/>
@@ -18956,7 +19005,9 @@
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="43"/>
+      <c r="E8" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
@@ -18979,7 +19030,9 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
-      <c r="AB8" s="44"/>
+      <c r="AB8" s="44" t="s">
+        <v>101</v>
+      </c>
       <c r="AC8" s="45"/>
       <c r="AD8" s="45"/>
       <c r="AE8" s="45"/>
@@ -19019,13 +19072,15 @@
       <c r="BM8" s="42"/>
       <c r="BN8" s="42"/>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" ht="23.4" customHeight="1">
       <c r="B9" s="24">
         <v>5</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
@@ -19048,7 +19103,9 @@
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
-      <c r="AB9" s="44"/>
+      <c r="AB9" s="44" t="s">
+        <v>103</v>
+      </c>
       <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
       <c r="AE9" s="45"/>
